--- a/dhc.xlsx
+++ b/dhc.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -259,7 +255,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -379,7 +374,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2987,7 +2981,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3106,7 +3099,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3281,10 +3273,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Munka1!$F$43:$F$49</c:f>
+              <c:f>Munka1!$F$67:$F$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3305,36 +3297,168 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Munka1!$G$43:$G$49</c:f>
+              <c:f>Munka1!$G$67:$G$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2787</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34859</c:v>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4580</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5804,8 +5928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6211,6 +6335,12 @@
       <c r="B54">
         <v>3</v>
       </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>23</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -6219,6 +6349,12 @@
       <c r="B55">
         <v>3</v>
       </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -6227,6 +6363,12 @@
       <c r="B56">
         <v>6</v>
       </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -6235,6 +6377,12 @@
       <c r="B57">
         <v>3</v>
       </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -6243,6 +6391,12 @@
       <c r="B58">
         <v>3</v>
       </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -6251,6 +6405,12 @@
       <c r="B59">
         <v>6</v>
       </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <v>30</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -6259,6 +6419,12 @@
       <c r="B60">
         <v>4</v>
       </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60">
+        <v>189</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -6267,6 +6433,12 @@
       <c r="B61">
         <v>7</v>
       </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61">
+        <v>2125</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -6275,6 +6447,12 @@
       <c r="B62">
         <v>4</v>
       </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>26265</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -6283,6 +6461,12 @@
       <c r="B63">
         <v>4</v>
       </c>
+      <c r="F63">
+        <v>11</v>
+      </c>
+      <c r="G63">
+        <v>339593</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -6292,7 +6476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>51</v>
       </c>
@@ -6300,7 +6484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>52</v>
       </c>
@@ -6308,239 +6492,413 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>53</v>
       </c>
       <c r="B67">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>54</v>
       </c>
       <c r="B68">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>55</v>
       </c>
       <c r="B69">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>56</v>
       </c>
       <c r="B70">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>57</v>
       </c>
       <c r="B71">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>58</v>
       </c>
       <c r="B72">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>7</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>59</v>
       </c>
       <c r="B73">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>60</v>
       </c>
       <c r="B74">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>61</v>
       </c>
       <c r="B75">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>62</v>
       </c>
       <c r="B76">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>11</v>
+      </c>
+      <c r="G76">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>63</v>
       </c>
       <c r="B77">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>12</v>
+      </c>
+      <c r="G77">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>64</v>
       </c>
       <c r="B78">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>65</v>
       </c>
       <c r="B79">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>14</v>
+      </c>
+      <c r="G79">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>66</v>
       </c>
       <c r="B80">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>15</v>
+      </c>
+      <c r="G80">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>67</v>
       </c>
       <c r="B81">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>16</v>
+      </c>
+      <c r="G81">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>68</v>
       </c>
       <c r="B82">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>17</v>
+      </c>
+      <c r="G82">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>69</v>
       </c>
       <c r="B83">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>18</v>
+      </c>
+      <c r="G83">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>70</v>
       </c>
       <c r="B84">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>19</v>
+      </c>
+      <c r="G84">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>71</v>
       </c>
       <c r="B85">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>20</v>
+      </c>
+      <c r="G85">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>72</v>
       </c>
       <c r="B86">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>21</v>
+      </c>
+      <c r="G86">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>73</v>
       </c>
       <c r="B87">
         <v>11</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>22</v>
+      </c>
+      <c r="G87">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>74</v>
       </c>
       <c r="B88">
         <v>11</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>23</v>
+      </c>
+      <c r="G88">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>75</v>
       </c>
       <c r="B89">
         <v>15</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>24</v>
+      </c>
+      <c r="G89">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>76</v>
       </c>
       <c r="B90">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>25</v>
+      </c>
+      <c r="G90">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>77</v>
       </c>
       <c r="B91">
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>26</v>
+      </c>
+      <c r="G91">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>78</v>
       </c>
       <c r="B92">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>27</v>
+      </c>
+      <c r="G92">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>79</v>
       </c>
       <c r="B93">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>28</v>
+      </c>
+      <c r="G93">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>80</v>
       </c>
       <c r="B94">
         <v>14</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>29</v>
+      </c>
+      <c r="G94">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>81</v>
       </c>
       <c r="B95">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>30</v>
+      </c>
+      <c r="G95">
+        <v>8002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>82</v>
       </c>

--- a/dhc.xlsx
+++ b/dhc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>TTT:</t>
+  </si>
+  <si>
+    <t>TTTINPUT:</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -255,6 +266,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -374,6 +386,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -524,19 +537,20 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="15875">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -2964,8 +2978,8 @@
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2981,6 +2995,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2997,8 +3012,8 @@
                 <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3021,6 +3036,7 @@
               <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3035,8 +3051,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3082,8 +3098,8 @@
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3099,6 +3115,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3115,8 +3132,8 @@
                 <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3134,8 +3151,15 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3147,8 +3171,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3164,7 +3188,17 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3176,22 +3210,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="43000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
@@ -3358,12 +3379,6 @@
                 <c:pt idx="26">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3374,91 +3389,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>78</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>150</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>188</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>251</c:v>
+                  <c:v>497</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>325</c:v>
+                  <c:v>919</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>422</c:v>
+                  <c:v>1281</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>560</c:v>
+                  <c:v>1055</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>716</c:v>
+                  <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>958</c:v>
+                  <c:v>1956</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1335</c:v>
+                  <c:v>3522</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1908</c:v>
+                  <c:v>4909</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2850</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4580</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8002</c:v>
+                  <c:v>10592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3687,6 +3696,433 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2073050096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Munka1!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Munka1!$H$2:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1577</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>271538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BE5-4FAE-B010-1CAB8CD01FCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1312299679"/>
+        <c:axId val="1312302175"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1312299679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>No. of states</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312302175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1312302175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Runtime (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
               <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
@@ -3717,7 +4153,538 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2073050096"/>
+        <c:crossAx val="1312299679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Munka1!$G$17:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Munka1!$H$17:$H$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1194</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1718</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2572</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4024</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5919</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-218E-4B4E-B713-687A82E404F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1209295119"/>
+        <c:axId val="1209295951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1209295119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Size of the input alphabet</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1209295951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1209295951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Runtime (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1209295119"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3896,6 +4863,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
   <cs:axisTitle>
@@ -4473,15 +5520,15 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200"/>
@@ -4492,11 +5539,35 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
@@ -4508,31 +5579,150 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="43000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
@@ -4543,163 +5733,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="20000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4708,13 +5749,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4723,16 +5765,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4741,16 +5784,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -4759,15 +5803,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4786,14 +5843,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4805,16 +5862,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4823,16 +5881,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4841,144 +5900,751 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
       <a:schemeClr val="dk1">
         <a:lumMod val="50000"/>
         <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
       <a:schemeClr val="dk1">
         <a:lumMod val="50000"/>
         <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4986,13 +6652,602 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5655,6 +7910,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>18411</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361791</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>77559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>153759</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagram 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5926,271 +8241,532 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G409"/>
+  <dimension ref="A1:H409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>4</v>
       </c>
       <c r="B1">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
       <c r="B4">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5">
         <v>202</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>214</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
       <c r="B6">
         <v>1798</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>1860</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
       <c r="B7">
         <v>20759</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>21760</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
       <c r="B8">
         <v>269233</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>273741</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>271538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
       <c r="B18">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>15</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>16</v>
+      </c>
+      <c r="H29">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>16</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>17</v>
+      </c>
+      <c r="H30">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>17</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>18</v>
+      </c>
+      <c r="H31">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>18</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>19</v>
+      </c>
+      <c r="H32">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>19</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="H33">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>21</v>
+      </c>
+      <c r="H34">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>21</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>22</v>
+      </c>
+      <c r="H35">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>22</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>23</v>
+      </c>
+      <c r="H36">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>23</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>24</v>
+      </c>
+      <c r="H37">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>24</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>25</v>
+      </c>
+      <c r="H38">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>25</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>26</v>
+      </c>
+      <c r="H39">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>26</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>27</v>
+      </c>
+      <c r="H40">
+        <v>5919</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>27</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>28</v>
+      </c>
+      <c r="H41">
+        <v>9944</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>28</v>
       </c>
@@ -6198,7 +8774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>29</v>
       </c>
@@ -6212,7 +8788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>30</v>
       </c>
@@ -6226,7 +8802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>31</v>
       </c>
@@ -6240,7 +8816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>32</v>
       </c>
@@ -6254,7 +8830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>33</v>
       </c>
@@ -6268,7 +8844,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>34</v>
       </c>
@@ -6503,7 +9079,7 @@
         <v>2</v>
       </c>
       <c r="G67">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -6517,7 +9093,7 @@
         <v>3</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -6531,7 +9107,7 @@
         <v>4</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -6545,7 +9121,7 @@
         <v>5</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -6559,7 +9135,7 @@
         <v>6</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -6573,7 +9149,7 @@
         <v>7</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -6587,7 +9163,7 @@
         <v>8</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -6601,7 +9177,7 @@
         <v>9</v>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -6615,7 +9191,7 @@
         <v>10</v>
       </c>
       <c r="G75">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -6629,7 +9205,7 @@
         <v>11</v>
       </c>
       <c r="G76">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -6643,7 +9219,7 @@
         <v>12</v>
       </c>
       <c r="G77">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -6657,7 +9233,7 @@
         <v>13</v>
       </c>
       <c r="G78">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -6671,7 +9247,7 @@
         <v>14</v>
       </c>
       <c r="G79">
-        <v>40</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -6685,7 +9261,7 @@
         <v>15</v>
       </c>
       <c r="G80">
-        <v>56</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -6699,7 +9275,7 @@
         <v>16</v>
       </c>
       <c r="G81">
-        <v>78</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -6713,7 +9289,7 @@
         <v>17</v>
       </c>
       <c r="G82">
-        <v>114</v>
+        <v>342</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -6727,7 +9303,7 @@
         <v>18</v>
       </c>
       <c r="G83">
-        <v>150</v>
+        <v>455</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -6741,7 +9317,7 @@
         <v>19</v>
       </c>
       <c r="G84">
-        <v>188</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -6755,7 +9331,7 @@
         <v>20</v>
       </c>
       <c r="G85">
-        <v>251</v>
+        <v>497</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -6769,7 +9345,7 @@
         <v>21</v>
       </c>
       <c r="G86">
-        <v>325</v>
+        <v>919</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -6783,7 +9359,7 @@
         <v>22</v>
       </c>
       <c r="G87">
-        <v>422</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -6797,7 +9373,7 @@
         <v>23</v>
       </c>
       <c r="G88">
-        <v>560</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -6811,7 +9387,7 @@
         <v>24</v>
       </c>
       <c r="G89">
-        <v>716</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -6825,7 +9401,7 @@
         <v>25</v>
       </c>
       <c r="G90">
-        <v>958</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -6839,7 +9415,7 @@
         <v>26</v>
       </c>
       <c r="G91">
-        <v>1335</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -6853,7 +9429,7 @@
         <v>27</v>
       </c>
       <c r="G92">
-        <v>1908</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -6867,7 +9443,7 @@
         <v>28</v>
       </c>
       <c r="G93">
-        <v>2850</v>
+        <v>10592</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -6877,12 +9453,6 @@
       <c r="B94">
         <v>14</v>
       </c>
-      <c r="F94">
-        <v>29</v>
-      </c>
-      <c r="G94">
-        <v>4580</v>
-      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -6890,12 +9460,6 @@
       </c>
       <c r="B95">
         <v>14</v>
-      </c>
-      <c r="F95">
-        <v>30</v>
-      </c>
-      <c r="G95">
-        <v>8002</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
